--- a/classfiers/bloated/multinomialNB/nearmiss/bloated-multinomialNB-nearmiss-results.xlsx
+++ b/classfiers/bloated/multinomialNB/nearmiss/bloated-multinomialNB-nearmiss-results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Accuracy</t>
+          <t>precision</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -452,6 +452,11 @@
       <c r="D1" s="1" t="inlineStr">
         <is>
           <t>F1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>AUC</t>
         </is>
       </c>
     </row>
@@ -470,6 +475,9 @@
       <c r="D2" t="n">
         <v>1</v>
       </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -478,13 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8846153846153846</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8846153846153846</v>
+        <v>0.9166666666666667</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8830584707646177</v>
+        <v>0.916083916083916</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.9166666666666667</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.7916666666666667</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8003072196620584</v>
+        <v>0.7822141560798548</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8</v>
+        <v>0.6875</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8076923076923077</v>
+        <v>0.7916666666666667</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7947454844006568</v>
+        <v>0.7758284600389863</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.7916666666666666</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6121794871794872</v>
+        <v>0.5795454545454546</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5659722222222221</v>
+        <v>0.5208333333333333</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5795454545454545</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8184615384615384</v>
+        <v>0.8001050420168067</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8224358974358974</v>
+        <v>0.815909090909091</v>
       </c>
       <c r="D7" t="n">
-        <v>0.808816679409911</v>
+        <v>0.7989919731072181</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8159090909090908</v>
       </c>
     </row>
   </sheetData>
